--- a/grocery/inventaire.xlsx
+++ b/grocery/inventaire.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\grocery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305744B5-6450-449D-99FD-2360ECF441B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D344649-373B-43E0-AE26-951736F33946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13507B99-042B-4FFB-89F1-AE5F145B9F99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13507B99-042B-4FFB-89F1-AE5F145B9F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
